--- a/LA of proteome data/1st proteome LA results/proteome_limma_analysis (with column of new identifiers and removed old) 3.xlsx
+++ b/LA of proteome data/1st proteome LA results/proteome_limma_analysis (with column of new identifiers and removed old) 3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabde\OneDrive\Documents\UM documents\BMS Year 3\Internship + Thesis\Sabrina_BMS_Bachelor-Internship\R analysis of proteome data\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34420f5773a88cdb/Documents/UM documents/BMS Year 3/Internship ^M Thesis/Sabrina_BMS_Bachelor-Internship/LA of proteome data/1st proteome LA results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A30350-C29D-4DC5-9578-DD1EC5550D01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E1A30350-C29D-4DC5-9578-DD1EC5550D01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{765D033B-1632-4F24-A436-103A2D4FBF48}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1753,7 +1753,7 @@
   <dimension ref="A1:G303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/LA of proteome data/1st proteome LA results/proteome_limma_analysis (with column of new identifiers and removed old) 3.xlsx
+++ b/LA of proteome data/1st proteome LA results/proteome_limma_analysis (with column of new identifiers and removed old) 3.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34420f5773a88cdb/Documents/UM documents/BMS Year 3/Internship ^M Thesis/Sabrina_BMS_Bachelor-Internship/LA of proteome data/1st proteome LA results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E1A30350-C29D-4DC5-9578-DD1EC5550D01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{765D033B-1632-4F24-A436-103A2D4FBF48}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{E1A30350-C29D-4DC5-9578-DD1EC5550D01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8166ED61-8E9A-406B-8CB7-91D82E34FB94}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9070" yWindow="0" windowWidth="10420" windowHeight="10150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="proteome_limma_analysis (from c" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="290">
   <si>
     <t>logFC</t>
   </si>
@@ -1045,7 +1046,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1225,6 +1226,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1386,7 +1393,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1395,6 +1402,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1752,8 +1761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G303"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8734,4 +8743,577 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5563B25E-3F29-49D4-9ED8-2AEBCA091E87}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-1.0741776127723199</v>
+      </c>
+      <c r="C2" s="5">
+        <v>-0.398896082883333</v>
+      </c>
+      <c r="D2" s="5">
+        <v>-2.0077232998247201</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4.9099125248842301E-2</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.60871202767500299</v>
+      </c>
+      <c r="G2" s="5">
+        <v>-4.0457314461818097</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-0.52225936598660705</v>
+      </c>
+      <c r="C3" s="5">
+        <v>-1.2269614523833301</v>
+      </c>
+      <c r="D3" s="5">
+        <v>-2.36492584845558</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2.1224000874374802E-2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.42730988427074501</v>
+      </c>
+      <c r="G3" s="5">
+        <v>-3.3715222105498999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>-0.45849209543750002</v>
+      </c>
+      <c r="C4">
+        <v>-1.7780746248166699</v>
+      </c>
+      <c r="D4">
+        <v>-3.7102284023462402</v>
+      </c>
+      <c r="E4">
+        <v>4.4920497628624502E-4</v>
+      </c>
+      <c r="F4">
+        <v>0.105102815186849</v>
+      </c>
+      <c r="G4">
+        <v>-0.10256870894093401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>-0.40175156883482099</v>
+      </c>
+      <c r="C5">
+        <v>-4.3902551014500002</v>
+      </c>
+      <c r="D5">
+        <v>-2.0739112703582401</v>
+      </c>
+      <c r="E5">
+        <v>4.23080277156851E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.60842973191128102</v>
+      </c>
+      <c r="G5">
+        <v>-3.92787338167251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>-0.301883993883928</v>
+      </c>
+      <c r="C6">
+        <v>-4.7735902191666701</v>
+      </c>
+      <c r="D6">
+        <v>-2.1784076077718502</v>
+      </c>
+      <c r="E6">
+        <v>3.3242592772518099E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.56017826473017396</v>
+      </c>
+      <c r="G6">
+        <v>-3.73516225415369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>-0.30060827348214297</v>
+      </c>
+      <c r="C7">
+        <v>8.3732705130833303</v>
+      </c>
+      <c r="D7">
+        <v>-2.5972722997408901</v>
+      </c>
+      <c r="E7">
+        <v>1.1756845152073999E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.29849601178040702</v>
+      </c>
+      <c r="G7">
+        <v>-2.88473872903604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>-0.29228854684821398</v>
+      </c>
+      <c r="C8">
+        <v>3.1853089317999999</v>
+      </c>
+      <c r="D8">
+        <v>-3.30585099406817</v>
+      </c>
+      <c r="E8">
+        <v>1.58803082917788E-3</v>
+      </c>
+      <c r="F8">
+        <v>0.14269693009805401</v>
+      </c>
+      <c r="G8">
+        <v>-1.19129016048409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>-0.26881095757142798</v>
+      </c>
+      <c r="C9">
+        <v>-1.13015018021667</v>
+      </c>
+      <c r="D9">
+        <v>-2.5651339748115198</v>
+      </c>
+      <c r="E9">
+        <v>1.2783915747951499E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.29849601178040702</v>
+      </c>
+      <c r="G9">
+        <v>-2.95423224077383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>-0.245286637303571</v>
+      </c>
+      <c r="C10">
+        <v>3.0735714957833302</v>
+      </c>
+      <c r="D10">
+        <v>-2.5436448207926898</v>
+      </c>
+      <c r="E10">
+        <v>1.3515353253045301E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.29849601178040702</v>
+      </c>
+      <c r="G10">
+        <v>-3.0003178304061699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>-0.16597777074107201</v>
+      </c>
+      <c r="C11">
+        <v>3.0520751609499999</v>
+      </c>
+      <c r="D11">
+        <v>-2.0009113846392101</v>
+      </c>
+      <c r="E11">
+        <v>4.9848572097848001E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.60871202767500299</v>
+      </c>
+      <c r="G11">
+        <v>-4.0576736327037697</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>0.16377086532589299</v>
+      </c>
+      <c r="C12">
+        <v>0.75630507915</v>
+      </c>
+      <c r="D12">
+        <v>2.1233078905074501</v>
+      </c>
+      <c r="E12">
+        <v>3.7785045127856402E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.60058334887435005</v>
+      </c>
+      <c r="G12">
+        <v>-3.8377810986728602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>0.16979017544196501</v>
+      </c>
+      <c r="C13">
+        <v>-5.1984824242999998</v>
+      </c>
+      <c r="D13">
+        <v>2.08607110450501</v>
+      </c>
+      <c r="E13">
+        <v>4.11531110604893E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.60842973191128102</v>
+      </c>
+      <c r="G13">
+        <v>-3.9058638641570602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>0.18581604722321399</v>
+      </c>
+      <c r="C14">
+        <v>-2.23576340093333</v>
+      </c>
+      <c r="D14">
+        <v>2.1765430842286202</v>
+      </c>
+      <c r="E14">
+        <v>3.3388108493851397E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.56017826473017396</v>
+      </c>
+      <c r="G14">
+        <v>-3.7386711309694798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>0.18958363150892801</v>
+      </c>
+      <c r="C15">
+        <v>4.8645973545666701</v>
+      </c>
+      <c r="D15">
+        <v>2.53451098282035</v>
+      </c>
+      <c r="E15">
+        <v>1.38375634600188E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.29849601178040702</v>
+      </c>
+      <c r="G15">
+        <v>-3.0198132496110501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>0.19787829528125001</v>
+      </c>
+      <c r="C16">
+        <v>3.28841115881667</v>
+      </c>
+      <c r="D16">
+        <v>2.9578419658014599</v>
+      </c>
+      <c r="E16">
+        <v>4.4003002954691103E-3</v>
+      </c>
+      <c r="F16">
+        <v>0.221481781538612</v>
+      </c>
+      <c r="G16">
+        <v>-2.06004204191809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>0.21365265385714299</v>
+      </c>
+      <c r="C17">
+        <v>5.3121815144499998</v>
+      </c>
+      <c r="D17">
+        <v>3.1153939544010401</v>
+      </c>
+      <c r="E17">
+        <v>2.7967953384325098E-3</v>
+      </c>
+      <c r="F17">
+        <v>0.16892643844132299</v>
+      </c>
+      <c r="G17">
+        <v>-1.6751110080768601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>0.27051496616517801</v>
+      </c>
+      <c r="C18">
+        <v>0.3490855008</v>
+      </c>
+      <c r="D18">
+        <v>2.61347570758709</v>
+      </c>
+      <c r="E18">
+        <v>1.12679778888109E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.29849601178040702</v>
+      </c>
+      <c r="G18">
+        <v>-2.8494444005022199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>0.28261678756696401</v>
+      </c>
+      <c r="C19">
+        <v>-1.23992649241667</v>
+      </c>
+      <c r="D19">
+        <v>2.6857944372122402</v>
+      </c>
+      <c r="E19">
+        <v>9.3038376517730302E-3</v>
+      </c>
+      <c r="F19">
+        <v>0.29849601178040702</v>
+      </c>
+      <c r="G19">
+        <v>-2.6898399778834001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>0.34662054215624999</v>
+      </c>
+      <c r="C20">
+        <v>-3.67491633235</v>
+      </c>
+      <c r="D20">
+        <v>2.27351266485215</v>
+      </c>
+      <c r="E20">
+        <v>2.6520962535462499E-2</v>
+      </c>
+      <c r="F20">
+        <v>0.50058316785685397</v>
+      </c>
+      <c r="G20">
+        <v>-3.5528440159463299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>0.38856687706249898</v>
+      </c>
+      <c r="C21">
+        <v>7.0299355020166701</v>
+      </c>
+      <c r="D21">
+        <v>2.7161739558829399</v>
+      </c>
+      <c r="E21">
+        <v>8.5763470243127495E-3</v>
+      </c>
+      <c r="F21">
+        <v>0.29849601178040702</v>
+      </c>
+      <c r="G21">
+        <v>-2.6217914654426502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>0.46983696898660698</v>
+      </c>
+      <c r="C22">
+        <v>-2.6204749138499999</v>
+      </c>
+      <c r="D22">
+        <v>3.2479534600417801</v>
+      </c>
+      <c r="E22">
+        <v>1.89002556421264E-3</v>
+      </c>
+      <c r="F22">
+        <v>0.14269693009805401</v>
+      </c>
+      <c r="G22">
+        <v>-1.3404403088688599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>0.474751353428571</v>
+      </c>
+      <c r="C23">
+        <v>-2.0601873803499999</v>
+      </c>
+      <c r="D23">
+        <v>2.60047709828067</v>
+      </c>
+      <c r="E23">
+        <v>1.16586515576277E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.29849601178040702</v>
+      </c>
+      <c r="G23">
+        <v>-2.8777716629031298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.62396064988839195</v>
+      </c>
+      <c r="C24" s="5">
+        <v>-2.6333976113333302</v>
+      </c>
+      <c r="D24" s="5">
+        <v>3.5728300295500302</v>
+      </c>
+      <c r="E24" s="5">
+        <v>6.9604513368774399E-4</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.105102815186849</v>
+      </c>
+      <c r="G24" s="5">
+        <v>-0.481344707571636</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G304">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LA of proteome data/1st proteome LA results/proteome_limma_analysis (with column of new identifiers and removed old) 3.xlsx
+++ b/LA of proteome data/1st proteome LA results/proteome_limma_analysis (with column of new identifiers and removed old) 3.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34420f5773a88cdb/Documents/UM documents/BMS Year 3/Internship ^M Thesis/Sabrina_BMS_Bachelor-Internship/LA of proteome data/1st proteome LA results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{E1A30350-C29D-4DC5-9578-DD1EC5550D01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8166ED61-8E9A-406B-8CB7-91D82E34FB94}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{E1A30350-C29D-4DC5-9578-DD1EC5550D01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{23BF70BE-9776-4910-A2A9-3BAEDAA8D526}"/>
   <bookViews>
-    <workbookView xWindow="9070" yWindow="0" windowWidth="10420" windowHeight="10150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9640" yWindow="0" windowWidth="9890" windowHeight="10150" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="proteome_limma_analysis (from c" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="290">
   <si>
     <t>logFC</t>
   </si>
@@ -897,6 +898,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1393,7 +1397,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1404,6 +1408,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1762,7 +1769,7 @@
   <dimension ref="A1:G303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8749,8 +8756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5563B25E-3F29-49D4-9ED8-2AEBCA091E87}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8782,302 +8789,302 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="5">
-        <v>-1.0741776127723199</v>
-      </c>
-      <c r="C2" s="5">
-        <v>-0.398896082883333</v>
-      </c>
-      <c r="D2" s="5">
-        <v>-2.0077232998247201</v>
-      </c>
-      <c r="E2" s="5">
-        <v>4.9099125248842301E-2</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.60871202767500299</v>
-      </c>
-      <c r="G2" s="5">
-        <v>-4.0457314461818097</v>
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>-0.45849209543750002</v>
+      </c>
+      <c r="C2">
+        <v>-1.7780746248166699</v>
+      </c>
+      <c r="D2">
+        <v>-3.7102284023462402</v>
+      </c>
+      <c r="E2">
+        <v>4.4920497628624502E-4</v>
+      </c>
+      <c r="F2">
+        <v>0.105102815186849</v>
+      </c>
+      <c r="G2">
+        <v>-0.10256870894093401</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B3" s="5">
-        <v>-0.52225936598660705</v>
+        <v>0.62396064988839195</v>
       </c>
       <c r="C3" s="5">
-        <v>-1.2269614523833301</v>
+        <v>-2.6333976113333302</v>
       </c>
       <c r="D3" s="5">
-        <v>-2.36492584845558</v>
+        <v>3.5728300295500302</v>
       </c>
       <c r="E3" s="5">
-        <v>2.1224000874374802E-2</v>
+        <v>6.9604513368774399E-4</v>
       </c>
       <c r="F3" s="5">
-        <v>0.42730988427074501</v>
+        <v>0.105102815186849</v>
       </c>
       <c r="G3" s="5">
-        <v>-3.3715222105498999</v>
+        <v>-0.481344707571636</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.45849209543750002</v>
+        <v>-0.29228854684821398</v>
       </c>
       <c r="C4">
-        <v>-1.7780746248166699</v>
+        <v>3.1853089317999999</v>
       </c>
       <c r="D4">
-        <v>-3.7102284023462402</v>
+        <v>-3.30585099406817</v>
       </c>
       <c r="E4">
-        <v>4.4920497628624502E-4</v>
+        <v>1.58803082917788E-3</v>
       </c>
       <c r="F4">
-        <v>0.105102815186849</v>
+        <v>0.14269693009805401</v>
       </c>
       <c r="G4">
-        <v>-0.10256870894093401</v>
+        <v>-1.19129016048409</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.40175156883482099</v>
+        <v>0.46983696898660698</v>
       </c>
       <c r="C5">
-        <v>-4.3902551014500002</v>
+        <v>-2.6204749138499999</v>
       </c>
       <c r="D5">
-        <v>-2.0739112703582401</v>
+        <v>3.2479534600417801</v>
       </c>
       <c r="E5">
-        <v>4.23080277156851E-2</v>
+        <v>1.89002556421264E-3</v>
       </c>
       <c r="F5">
-        <v>0.60842973191128102</v>
+        <v>0.14269693009805401</v>
       </c>
       <c r="G5">
-        <v>-3.92787338167251</v>
+        <v>-1.3404403088688599</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.301883993883928</v>
+        <v>0.21365265385714299</v>
       </c>
       <c r="C6">
-        <v>-4.7735902191666701</v>
+        <v>5.3121815144499998</v>
       </c>
       <c r="D6">
-        <v>-2.1784076077718502</v>
+        <v>3.1153939544010401</v>
       </c>
       <c r="E6">
-        <v>3.3242592772518099E-2</v>
+        <v>2.7967953384325098E-3</v>
       </c>
       <c r="F6">
-        <v>0.56017826473017396</v>
+        <v>0.16892643844132299</v>
       </c>
       <c r="G6">
-        <v>-3.73516225415369</v>
+        <v>-1.6751110080768601</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.30060827348214297</v>
+        <v>0.19787829528125001</v>
       </c>
       <c r="C7">
-        <v>8.3732705130833303</v>
+        <v>3.28841115881667</v>
       </c>
       <c r="D7">
-        <v>-2.5972722997408901</v>
+        <v>2.9578419658014599</v>
       </c>
       <c r="E7">
-        <v>1.1756845152073999E-2</v>
+        <v>4.4003002954691103E-3</v>
       </c>
       <c r="F7">
-        <v>0.29849601178040702</v>
+        <v>0.221481781538612</v>
       </c>
       <c r="G7">
-        <v>-2.88473872903604</v>
+        <v>-2.06004204191809</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.29228854684821398</v>
+        <v>0.38856687706249898</v>
       </c>
       <c r="C8">
-        <v>3.1853089317999999</v>
+        <v>7.0299355020166701</v>
       </c>
       <c r="D8">
-        <v>-3.30585099406817</v>
+        <v>2.7161739558829399</v>
       </c>
       <c r="E8">
-        <v>1.58803082917788E-3</v>
+        <v>8.5763470243127495E-3</v>
       </c>
       <c r="F8">
-        <v>0.14269693009805401</v>
+        <v>0.29849601178040702</v>
       </c>
       <c r="G8">
-        <v>-1.19129016048409</v>
+        <v>-2.6217914654426502</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.26881095757142798</v>
+        <v>0.28261678756696401</v>
       </c>
       <c r="C9">
-        <v>-1.13015018021667</v>
+        <v>-1.23992649241667</v>
       </c>
       <c r="D9">
-        <v>-2.5651339748115198</v>
+        <v>2.6857944372122402</v>
       </c>
       <c r="E9">
-        <v>1.2783915747951499E-2</v>
+        <v>9.3038376517730302E-3</v>
       </c>
       <c r="F9">
         <v>0.29849601178040702</v>
       </c>
       <c r="G9">
-        <v>-2.95423224077383</v>
+        <v>-2.6898399778834001</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.245286637303571</v>
+        <v>0.27051496616517801</v>
       </c>
       <c r="C10">
-        <v>3.0735714957833302</v>
+        <v>0.3490855008</v>
       </c>
       <c r="D10">
-        <v>-2.5436448207926898</v>
+        <v>2.61347570758709</v>
       </c>
       <c r="E10">
-        <v>1.3515353253045301E-2</v>
+        <v>1.12679778888109E-2</v>
       </c>
       <c r="F10">
         <v>0.29849601178040702</v>
       </c>
       <c r="G10">
-        <v>-3.0003178304061699</v>
+        <v>-2.8494444005022199</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.16597777074107201</v>
+        <v>0.474751353428571</v>
       </c>
       <c r="C11">
-        <v>3.0520751609499999</v>
+        <v>-2.0601873803499999</v>
       </c>
       <c r="D11">
-        <v>-2.0009113846392101</v>
+        <v>2.60047709828067</v>
       </c>
       <c r="E11">
-        <v>4.9848572097848001E-2</v>
+        <v>1.16586515576277E-2</v>
       </c>
       <c r="F11">
-        <v>0.60871202767500299</v>
+        <v>0.29849601178040702</v>
       </c>
       <c r="G11">
-        <v>-4.0576736327037697</v>
+        <v>-2.8777716629031298</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.16377086532589299</v>
+        <v>-0.30060827348214297</v>
       </c>
       <c r="C12">
-        <v>0.75630507915</v>
+        <v>8.3732705130833303</v>
       </c>
       <c r="D12">
-        <v>2.1233078905074501</v>
+        <v>-2.5972722997408901</v>
       </c>
       <c r="E12">
-        <v>3.7785045127856402E-2</v>
+        <v>1.1756845152073999E-2</v>
       </c>
       <c r="F12">
-        <v>0.60058334887435005</v>
+        <v>0.29849601178040702</v>
       </c>
       <c r="G12">
-        <v>-3.8377810986728602</v>
+        <v>-2.88473872903604</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.16979017544196501</v>
+        <v>-0.26881095757142798</v>
       </c>
       <c r="C13">
-        <v>-5.1984824242999998</v>
+        <v>-1.13015018021667</v>
       </c>
       <c r="D13">
-        <v>2.08607110450501</v>
+        <v>-2.5651339748115198</v>
       </c>
       <c r="E13">
-        <v>4.11531110604893E-2</v>
+        <v>1.2783915747951499E-2</v>
       </c>
       <c r="F13">
-        <v>0.60842973191128102</v>
+        <v>0.29849601178040702</v>
       </c>
       <c r="G13">
-        <v>-3.9058638641570602</v>
+        <v>-2.95423224077383</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.18581604722321399</v>
+        <v>-0.245286637303571</v>
       </c>
       <c r="C14">
-        <v>-2.23576340093333</v>
+        <v>3.0735714957833302</v>
       </c>
       <c r="D14">
-        <v>2.1765430842286202</v>
+        <v>-2.5436448207926898</v>
       </c>
       <c r="E14">
-        <v>3.3388108493851397E-2</v>
+        <v>1.3515353253045301E-2</v>
       </c>
       <c r="F14">
-        <v>0.56017826473017396</v>
+        <v>0.29849601178040702</v>
       </c>
       <c r="G14">
-        <v>-3.7386711309694798</v>
+        <v>-3.0003178304061699</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -9104,216 +9111,575 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16">
-        <v>0.19787829528125001</v>
-      </c>
-      <c r="C16">
-        <v>3.28841115881667</v>
-      </c>
-      <c r="D16">
-        <v>2.9578419658014599</v>
-      </c>
-      <c r="E16">
-        <v>4.4003002954691103E-3</v>
-      </c>
-      <c r="F16">
-        <v>0.221481781538612</v>
-      </c>
-      <c r="G16">
-        <v>-2.06004204191809</v>
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5">
+        <v>-0.52225936598660705</v>
+      </c>
+      <c r="C16" s="5">
+        <v>-1.2269614523833301</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-2.36492584845558</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2.1224000874374802E-2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.42730988427074501</v>
+      </c>
+      <c r="G16" s="5">
+        <v>-3.3715222105498999</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0.21365265385714299</v>
+        <v>0.34662054215624999</v>
       </c>
       <c r="C17">
-        <v>5.3121815144499998</v>
+        <v>-3.67491633235</v>
       </c>
       <c r="D17">
-        <v>3.1153939544010401</v>
+        <v>2.27351266485215</v>
       </c>
       <c r="E17">
-        <v>2.7967953384325098E-3</v>
+        <v>2.6520962535462499E-2</v>
       </c>
       <c r="F17">
-        <v>0.16892643844132299</v>
+        <v>0.50058316785685397</v>
       </c>
       <c r="G17">
-        <v>-1.6751110080768601</v>
+        <v>-3.5528440159463299</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B18">
-        <v>0.27051496616517801</v>
+        <v>-0.301883993883928</v>
       </c>
       <c r="C18">
-        <v>0.3490855008</v>
+        <v>-4.7735902191666701</v>
       </c>
       <c r="D18">
-        <v>2.61347570758709</v>
+        <v>-2.1784076077718502</v>
       </c>
       <c r="E18">
-        <v>1.12679778888109E-2</v>
+        <v>3.3242592772518099E-2</v>
       </c>
       <c r="F18">
-        <v>0.29849601178040702</v>
+        <v>0.56017826473017396</v>
       </c>
       <c r="G18">
-        <v>-2.8494444005022199</v>
+        <v>-3.73516225415369</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>0.28261678756696401</v>
+        <v>0.18581604722321399</v>
       </c>
       <c r="C19">
-        <v>-1.23992649241667</v>
+        <v>-2.23576340093333</v>
       </c>
       <c r="D19">
-        <v>2.6857944372122402</v>
+        <v>2.1765430842286202</v>
       </c>
       <c r="E19">
-        <v>9.3038376517730302E-3</v>
+        <v>3.3388108493851397E-2</v>
       </c>
       <c r="F19">
-        <v>0.29849601178040702</v>
+        <v>0.56017826473017396</v>
       </c>
       <c r="G19">
-        <v>-2.6898399778834001</v>
+        <v>-3.7386711309694798</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>0.34662054215624999</v>
+        <v>0.16377086532589299</v>
       </c>
       <c r="C20">
-        <v>-3.67491633235</v>
+        <v>0.75630507915</v>
       </c>
       <c r="D20">
-        <v>2.27351266485215</v>
+        <v>2.1233078905074501</v>
       </c>
       <c r="E20">
-        <v>2.6520962535462499E-2</v>
+        <v>3.7785045127856402E-2</v>
       </c>
       <c r="F20">
-        <v>0.50058316785685397</v>
+        <v>0.60058334887435005</v>
       </c>
       <c r="G20">
-        <v>-3.5528440159463299</v>
+        <v>-3.8377810986728602</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>0.38856687706249898</v>
+        <v>0.16979017544196501</v>
       </c>
       <c r="C21">
-        <v>7.0299355020166701</v>
+        <v>-5.1984824242999998</v>
       </c>
       <c r="D21">
-        <v>2.7161739558829399</v>
+        <v>2.08607110450501</v>
       </c>
       <c r="E21">
-        <v>8.5763470243127495E-3</v>
+        <v>4.11531110604893E-2</v>
       </c>
       <c r="F21">
-        <v>0.29849601178040702</v>
+        <v>0.60842973191128102</v>
       </c>
       <c r="G21">
-        <v>-2.6217914654426502</v>
+        <v>-3.9058638641570602</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>0.46983696898660698</v>
+        <v>-0.40175156883482099</v>
       </c>
       <c r="C22">
-        <v>-2.6204749138499999</v>
+        <v>-4.3902551014500002</v>
       </c>
       <c r="D22">
-        <v>3.2479534600417801</v>
+        <v>-2.0739112703582401</v>
       </c>
       <c r="E22">
-        <v>1.89002556421264E-3</v>
+        <v>4.23080277156851E-2</v>
       </c>
       <c r="F22">
-        <v>0.14269693009805401</v>
+        <v>0.60842973191128102</v>
       </c>
       <c r="G22">
-        <v>-1.3404403088688599</v>
+        <v>-3.92787338167251</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23">
-        <v>0.474751353428571</v>
-      </c>
-      <c r="C23">
-        <v>-2.0601873803499999</v>
-      </c>
-      <c r="D23">
-        <v>2.60047709828067</v>
-      </c>
-      <c r="E23">
-        <v>1.16586515576277E-2</v>
-      </c>
-      <c r="F23">
-        <v>0.29849601178040702</v>
-      </c>
-      <c r="G23">
-        <v>-2.8777716629031298</v>
+      <c r="A23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="5">
+        <v>-1.0741776127723199</v>
+      </c>
+      <c r="C23" s="5">
+        <v>-0.398896082883333</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-2.0077232998247201</v>
+      </c>
+      <c r="E23" s="5">
+        <v>4.9099125248842301E-2</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.60871202767500299</v>
+      </c>
+      <c r="G23" s="5">
+        <v>-4.0457314461818097</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="5">
-        <v>0.62396064988839195</v>
-      </c>
-      <c r="C24" s="5">
-        <v>-2.6333976113333302</v>
-      </c>
-      <c r="D24" s="5">
-        <v>3.5728300295500302</v>
-      </c>
-      <c r="E24" s="5">
-        <v>6.9604513368774399E-4</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0.105102815186849</v>
-      </c>
-      <c r="G24" s="5">
-        <v>-0.481344707571636</v>
+      <c r="A24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>-0.16597777074107201</v>
+      </c>
+      <c r="C24">
+        <v>3.0520751609499999</v>
+      </c>
+      <c r="D24">
+        <v>-2.0009113846392101</v>
+      </c>
+      <c r="E24">
+        <v>4.9848572097848001E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.60871202767500299</v>
+      </c>
+      <c r="G24">
+        <v>-4.0576736327037697</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G304">
-    <sortCondition ref="B1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G24">
+    <sortCondition ref="E1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201A38F-9C9D-48DA-AFBD-5BA3F2CB2597}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8">
+        <v>-0.45849209543750002</v>
+      </c>
+      <c r="C2" s="8">
+        <v>4.4920497628624502E-4</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.105102815186849</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.62396064988839195</v>
+      </c>
+      <c r="C3" s="8">
+        <v>6.9604513368774399E-4</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.105102815186849</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8">
+        <v>-0.29228854684821398</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1.58803082917788E-3</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.14269693009805401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.46983696898660698</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.89002556421264E-3</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.14269693009805401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.21365265385714299</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2.7967953384325098E-3</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.16892643844132299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.19787829528125001</v>
+      </c>
+      <c r="C7" s="8">
+        <v>4.4003002954691103E-3</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.221481781538612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.38856687706249898</v>
+      </c>
+      <c r="C8" s="8">
+        <v>8.5763470243127495E-3</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.29849601178040702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.28261678756696401</v>
+      </c>
+      <c r="C9" s="8">
+        <v>9.3038376517730302E-3</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.29849601178040702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.27051496616517801</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1.12679778888109E-2</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.29849601178040702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.474751353428571</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1.16586515576277E-2</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.29849601178040702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="8">
+        <v>-0.30060827348214297</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1.1756845152073999E-2</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.29849601178040702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="8">
+        <v>-0.26881095757142798</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1.2783915747951499E-2</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.29849601178040702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="8">
+        <v>-0.245286637303571</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1.3515353253045301E-2</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.29849601178040702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.18958363150892801</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1.38375634600188E-2</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.29849601178040702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="8">
+        <v>-0.52225936598660705</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2.1224000874374802E-2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.42730988427074501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0.34662054215624999</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2.6520962535462499E-2</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.50058316785685397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="8">
+        <v>-0.301883993883928</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3.3242592772518099E-2</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.56017826473017396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0.18581604722321399</v>
+      </c>
+      <c r="C19" s="8">
+        <v>3.3388108493851397E-2</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.56017826473017396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0.16377086532589299</v>
+      </c>
+      <c r="C20" s="8">
+        <v>3.7785045127856402E-2</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.60058334887435005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.16979017544196501</v>
+      </c>
+      <c r="C21" s="8">
+        <v>4.11531110604893E-2</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.60842973191128102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="8">
+        <v>-0.40175156883482099</v>
+      </c>
+      <c r="C22" s="8">
+        <v>4.23080277156851E-2</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.60842973191128102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="8">
+        <v>-1.0741776127723199</v>
+      </c>
+      <c r="C23" s="8">
+        <v>4.9099125248842301E-2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.60871202767500299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="8">
+        <v>-0.16597777074107201</v>
+      </c>
+      <c r="C24" s="8">
+        <v>4.9848572097848001E-2</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.60871202767500299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>